--- a/Input File.xlsx
+++ b/Input File.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\Example1\Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AE656D-CE5C-4A6D-9B7A-75AEA5B1AF23}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B6B110-55A4-49BE-B5B5-32DDF0AF5349}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8D8D40AF-D817-498A-9F35-8389950A6B33}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20445" windowHeight="10920" activeTab="9" xr2:uid="{8D8D40AF-D817-498A-9F35-8389950A6B33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="100">
   <si>
     <t>OrderDate</t>
   </si>
@@ -141,9 +141,6 @@
     <t>Safety</t>
   </si>
   <si>
-    <t>Overall</t>
-  </si>
-  <si>
     <t>vhigh</t>
   </si>
   <si>
@@ -153,9 +150,6 @@
     <t>low</t>
   </si>
   <si>
-    <t>unacc</t>
-  </si>
-  <si>
     <t>med</t>
   </si>
   <si>
@@ -216,21 +210,12 @@
     <t>Ola</t>
   </si>
   <si>
-    <t>CAR SERVICES</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
     <t>gender</t>
   </si>
   <si>
-    <t>bdate</t>
-  </si>
-  <si>
-    <t>jobcat</t>
-  </si>
-  <si>
     <t>salary</t>
   </si>
   <si>
@@ -306,30 +291,6 @@
     <t>Enugu</t>
   </si>
   <si>
-    <t>vh</t>
-  </si>
-  <si>
-    <t>ozon</t>
-  </si>
-  <si>
-    <t>ibh</t>
-  </si>
-  <si>
-    <t>dpg</t>
-  </si>
-  <si>
-    <t>vis</t>
-  </si>
-  <si>
-    <t>temp</t>
-  </si>
-  <si>
-    <t>doy</t>
-  </si>
-  <si>
-    <t>OZONE LAYER DATA</t>
-  </si>
-  <si>
     <t>Area</t>
   </si>
   <si>
@@ -348,13 +309,31 @@
     <t>Coefficient</t>
   </si>
   <si>
-    <t>Groove Length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FARM SEEDS DECRIPTION </t>
-  </si>
-  <si>
     <t>VOTER ASPIRANT INFORMATION</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>Losses</t>
+  </si>
+  <si>
+    <t>Cab</t>
+  </si>
+  <si>
+    <t>birthdate</t>
+  </si>
+  <si>
+    <t>education</t>
+  </si>
+  <si>
+    <t>jobcategory</t>
+  </si>
+  <si>
+    <t>RANDOM NUMBER GENERTED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FARM SEED DECRIPTION </t>
   </si>
 </sst>
 </file>
@@ -836,7 +815,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
@@ -848,6 +827,13 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1211,22 +1197,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0511B015-4130-44EB-BAE9-88245E47D22B}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+        <v>94</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -1237,7 +1225,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -1248,7 +1236,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B4">
         <v>30</v>
@@ -1259,7 +1247,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B5">
         <v>90</v>
@@ -1269,9 +1257,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1281,43 +1266,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6C440D-B7DE-46F3-A652-15573F3A28FD}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C1" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="C1" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="H2" s="10"/>
+        <v>90</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
@@ -1338,9 +1321,7 @@
       <c r="F3" s="9">
         <v>2.2210000000000001</v>
       </c>
-      <c r="G3" s="9">
-        <v>5.22</v>
-      </c>
+      <c r="G3" s="9"/>
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1362,9 +1343,7 @@
       <c r="F4" s="9">
         <v>1.018</v>
       </c>
-      <c r="G4" s="9">
-        <v>4.9560000000000004</v>
-      </c>
+      <c r="G4" s="9"/>
       <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1386,9 +1365,7 @@
       <c r="F5" s="9">
         <v>2.6989999999999998</v>
       </c>
-      <c r="G5" s="9">
-        <v>4.8250000000000002</v>
-      </c>
+      <c r="G5" s="9"/>
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1410,9 +1387,7 @@
       <c r="F6" s="9">
         <v>2.2589999999999999</v>
       </c>
-      <c r="G6" s="9">
-        <v>4.8049999999999997</v>
-      </c>
+      <c r="G6" s="9"/>
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1434,9 +1409,7 @@
       <c r="F7" s="9">
         <v>1.355</v>
       </c>
-      <c r="G7" s="9">
-        <v>5.1749999999999998</v>
-      </c>
+      <c r="G7" s="9"/>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1458,9 +1431,7 @@
       <c r="F8" s="9">
         <v>2.4620000000000002</v>
       </c>
-      <c r="G8" s="9">
-        <v>4.9560000000000004</v>
-      </c>
+      <c r="G8" s="9"/>
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1482,9 +1453,7 @@
       <c r="F9" s="9">
         <v>3.5859999999999999</v>
       </c>
-      <c r="G9" s="9">
-        <v>5.2190000000000003</v>
-      </c>
+      <c r="G9" s="9"/>
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1506,9 +1475,7 @@
       <c r="F10" s="9">
         <v>2.7</v>
       </c>
-      <c r="G10" s="9">
-        <v>5</v>
-      </c>
+      <c r="G10" s="9"/>
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1530,9 +1497,7 @@
       <c r="F11" s="9">
         <v>2.04</v>
       </c>
-      <c r="G11" s="9">
-        <v>5.8769999999999998</v>
-      </c>
+      <c r="G11" s="9"/>
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1554,15 +1519,12 @@
       <c r="F12" s="9">
         <v>1.9690000000000001</v>
       </c>
-      <c r="G12" s="9">
-        <v>5.5330000000000004</v>
-      </c>
+      <c r="G12" s="9"/>
       <c r="H12" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1572,22 +1534,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C09C0C7-4472-4465-BF96-8CA9B1C741E8}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="A1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>27</v>
@@ -1705,23 +1667,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB54C63-7530-42FD-84C3-06D16E5952E2}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C1" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1740,214 +1702,184 @@
       <c r="F2" t="s">
         <v>34</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
         <v>36</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
         <v>36</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
         <v>37</v>
       </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
         <v>38</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
         <v>37</v>
       </c>
-      <c r="F4" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
         <v>40</v>
       </c>
-      <c r="G4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
         <v>40</v>
       </c>
-      <c r="F6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>42</v>
-      </c>
       <c r="F11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1964,37 +1896,37 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
         <v>43</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>44</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>45</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>46</v>
-      </c>
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2178,9 +2110,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2202,21 +2134,21 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="A1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2337,12 +2269,12 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C1" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="C1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2656,7 +2588,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2665,44 +2597,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D1" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="D1" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2710,28 +2642,28 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C3" s="5">
-        <v>19027</v>
+        <v>25967</v>
       </c>
       <c r="D3" s="4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" s="6">
-        <v>57000</v>
+        <v>47000</v>
       </c>
       <c r="G3" s="6">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="H3" s="4">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="I3" s="4">
-        <v>144</v>
+        <v>5</v>
       </c>
       <c r="J3" s="4">
         <v>0</v>
@@ -2742,28 +2674,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C4" s="5">
-        <v>21328</v>
+        <v>26442</v>
       </c>
       <c r="D4" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="6">
-        <v>40200</v>
+        <v>30200</v>
       </c>
       <c r="G4" s="6">
-        <v>18750</v>
+        <v>20672</v>
       </c>
       <c r="H4" s="4">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="I4" s="4">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="J4" s="4">
         <v>0</v>
@@ -2774,28 +2706,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C5" s="5">
-        <v>10800</v>
+        <v>22123</v>
       </c>
       <c r="D5" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="6">
-        <v>21450</v>
+        <v>20450</v>
       </c>
       <c r="G5" s="6">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="H5" s="4">
         <v>98</v>
       </c>
       <c r="I5" s="4">
-        <v>381</v>
+        <v>30</v>
       </c>
       <c r="J5" s="4">
         <v>0</v>
@@ -2806,28 +2738,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C6" s="5">
-        <v>17272</v>
+        <v>31882</v>
       </c>
       <c r="D6" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="6">
-        <v>21900</v>
+        <v>20900</v>
       </c>
       <c r="G6" s="6">
-        <v>13200</v>
+        <v>19200</v>
       </c>
       <c r="H6" s="4">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="I6" s="4">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="J6" s="4">
         <v>0</v>
@@ -2838,28 +2770,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C7" s="5">
-        <v>20129</v>
+        <v>24877</v>
       </c>
       <c r="D7" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="6">
-        <v>45000</v>
+        <v>35000</v>
       </c>
       <c r="G7" s="6">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="H7" s="4">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="I7" s="4">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="J7" s="4">
         <v>0</v>
@@ -2870,28 +2802,28 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C8" s="5">
-        <v>21419</v>
+        <v>27628</v>
       </c>
       <c r="D8" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="6">
-        <v>32100</v>
+        <v>30100</v>
       </c>
       <c r="G8" s="6">
-        <v>13500</v>
+        <v>15500</v>
       </c>
       <c r="H8" s="4">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="I8" s="4">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="J8" s="4">
         <v>0</v>
@@ -2902,28 +2834,28 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C9" s="5">
-        <v>20571</v>
+        <v>32259</v>
       </c>
       <c r="D9" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="6">
-        <v>36000</v>
+        <v>35000</v>
       </c>
       <c r="G9" s="6">
-        <v>18750</v>
+        <v>21750</v>
       </c>
       <c r="H9" s="4">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="I9" s="4">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="J9" s="4">
         <v>0</v>
@@ -2934,25 +2866,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C10" s="5">
-        <v>24233</v>
+        <v>25329</v>
       </c>
       <c r="D10" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E10" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="6">
-        <v>21900</v>
+        <v>20900</v>
       </c>
       <c r="G10" s="6">
-        <v>9750</v>
+        <v>10750</v>
       </c>
       <c r="H10" s="4">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="I10" s="4">
         <v>0</v>
@@ -2966,28 +2898,28 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C11" s="5">
-        <v>16825</v>
+        <v>21573</v>
       </c>
       <c r="D11" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="6">
-        <v>27900</v>
+        <v>26900</v>
       </c>
       <c r="G11" s="6">
-        <v>12750</v>
+        <v>13750</v>
       </c>
       <c r="H11" s="4">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="I11" s="4">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="J11" s="4">
         <v>0</v>
@@ -3006,155 +2938,155 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C3" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="B4" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D4" s="13" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="7">
+        <v>78</v>
+      </c>
+      <c r="B5" s="13">
+        <v>31.2</v>
+      </c>
+      <c r="C5" s="13">
         <v>44</v>
       </c>
-      <c r="C5" s="7">
-        <v>31.2</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="D5" s="13">
         <v>88.5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="7">
+        <v>79</v>
+      </c>
+      <c r="B6" s="13">
+        <v>32.9</v>
+      </c>
+      <c r="C6" s="13">
         <v>38</v>
       </c>
-      <c r="C6" s="7">
-        <v>32.9</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="D6" s="13">
         <v>86.8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="7">
+        <v>80</v>
+      </c>
+      <c r="B7" s="13">
+        <v>33.6</v>
+      </c>
+      <c r="C7" s="13">
         <v>35</v>
       </c>
-      <c r="C7" s="7">
-        <v>33.6</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="D7" s="13">
         <v>112.5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" s="7">
+        <v>81</v>
+      </c>
+      <c r="B8" s="13">
+        <v>35.4</v>
+      </c>
+      <c r="C8" s="13">
         <v>31</v>
       </c>
-      <c r="C8" s="7">
-        <v>35.4</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="D8" s="13">
         <v>92.8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="7">
+        <v>82</v>
+      </c>
+      <c r="B9" s="13">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="C9" s="13">
         <v>47</v>
       </c>
-      <c r="C9" s="7">
-        <v>34.299999999999997</v>
-      </c>
-      <c r="D9" s="7">
+      <c r="D9" s="13">
         <v>118.7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="7">
+        <v>83</v>
+      </c>
+      <c r="B10" s="13">
+        <v>38.4</v>
+      </c>
+      <c r="C10" s="13">
         <v>42</v>
       </c>
-      <c r="C10" s="7">
-        <v>38.4</v>
-      </c>
-      <c r="D10" s="7">
+      <c r="D10" s="13">
         <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" s="7">
+        <v>84</v>
+      </c>
+      <c r="B11" s="13">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="C11" s="13">
         <v>15</v>
       </c>
-      <c r="C11" s="7">
-        <v>40.700000000000003</v>
-      </c>
-      <c r="D11" s="7">
+      <c r="D11" s="13">
         <v>105.3</v>
       </c>
     </row>
@@ -3168,137 +3100,138 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C8F40C5-10AE-4DE6-B539-2CBE3D574BCC}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C1" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C1" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>5710</v>
+      </c>
+      <c r="B2" s="8">
+        <v>3</v>
+      </c>
+      <c r="C2" s="8">
+        <v>250</v>
+      </c>
+      <c r="D2" s="8">
+        <v>-25</v>
+      </c>
+      <c r="E2" s="8">
+        <v>2693</v>
+      </c>
+      <c r="F2" s="8">
+        <v>40</v>
+      </c>
+      <c r="G2" s="8">
+        <v>3</v>
+      </c>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <v>5710</v>
+        <v>5700</v>
       </c>
       <c r="B3" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" s="8">
-        <v>2693</v>
+        <v>100</v>
       </c>
       <c r="D3" s="8">
-        <v>-25</v>
+        <v>-24</v>
       </c>
       <c r="E3" s="8">
-        <v>250</v>
+        <v>590</v>
       </c>
       <c r="F3" s="8">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G3" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <v>5700</v>
+        <v>5760</v>
       </c>
       <c r="B4" s="8">
         <v>5</v>
       </c>
       <c r="C4" s="8">
-        <v>590</v>
+        <v>60</v>
       </c>
       <c r="D4" s="8">
-        <v>-24</v>
+        <v>25</v>
       </c>
       <c r="E4" s="8">
+        <v>1450</v>
+      </c>
+      <c r="F4" s="8">
+        <v>54</v>
+      </c>
+      <c r="G4" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>5720</v>
+      </c>
+      <c r="B5" s="8">
+        <v>6</v>
+      </c>
+      <c r="C5" s="8">
+        <v>60</v>
+      </c>
+      <c r="D5" s="8">
+        <v>15</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1568</v>
+      </c>
+      <c r="F5" s="8">
+        <v>35</v>
+      </c>
+      <c r="G5" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>5790</v>
+      </c>
+      <c r="B6" s="8">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8">
         <v>100</v>
       </c>
-      <c r="F4" s="8">
+      <c r="D6" s="8">
+        <v>-33</v>
+      </c>
+      <c r="E6" s="8">
+        <v>2631</v>
+      </c>
+      <c r="F6" s="8">
         <v>45</v>
       </c>
-      <c r="G4" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>5760</v>
-      </c>
-      <c r="B5" s="8">
-        <v>5</v>
-      </c>
-      <c r="C5" s="8">
-        <v>1450</v>
-      </c>
-      <c r="D5" s="8">
-        <v>25</v>
-      </c>
-      <c r="E5" s="8">
-        <v>60</v>
-      </c>
-      <c r="F5" s="8">
-        <v>54</v>
-      </c>
-      <c r="G5" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>5720</v>
-      </c>
-      <c r="B6" s="8">
-        <v>6</v>
-      </c>
-      <c r="C6" s="8">
-        <v>1568</v>
-      </c>
-      <c r="D6" s="8">
-        <v>15</v>
-      </c>
-      <c r="E6" s="8">
-        <v>60</v>
-      </c>
-      <c r="F6" s="8">
-        <v>35</v>
-      </c>
       <c r="G6" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>5790</v>
       </c>
@@ -3306,110 +3239,87 @@
         <v>4</v>
       </c>
       <c r="C7" s="8">
-        <v>2631</v>
+        <v>250</v>
       </c>
       <c r="D7" s="8">
-        <v>-33</v>
+        <v>-28</v>
       </c>
       <c r="E7" s="8">
-        <v>100</v>
+        <v>554</v>
       </c>
       <c r="F7" s="8">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G7" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
-        <v>5790</v>
+        <v>5700</v>
       </c>
       <c r="B8" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" s="8">
-        <v>554</v>
+        <v>120</v>
       </c>
       <c r="D8" s="8">
-        <v>-28</v>
+        <v>23</v>
       </c>
       <c r="E8" s="8">
-        <v>250</v>
+        <v>2083</v>
       </c>
       <c r="F8" s="8">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G8" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>5700</v>
       </c>
       <c r="B9" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="8">
-        <v>2083</v>
+        <v>120</v>
       </c>
       <c r="D9" s="8">
-        <v>23</v>
+        <v>-2</v>
       </c>
       <c r="E9" s="8">
+        <v>2654</v>
+      </c>
+      <c r="F9" s="8">
+        <v>44</v>
+      </c>
+      <c r="G9" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>5770</v>
+      </c>
+      <c r="B10" s="8">
+        <v>4</v>
+      </c>
+      <c r="C10" s="8">
         <v>120</v>
       </c>
-      <c r="F9" s="8">
-        <v>41</v>
-      </c>
-      <c r="G9" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>5700</v>
-      </c>
-      <c r="B10" s="8">
-        <v>7</v>
-      </c>
-      <c r="C10" s="8">
-        <v>2654</v>
-      </c>
       <c r="D10" s="8">
-        <v>-2</v>
+        <v>-19</v>
       </c>
       <c r="E10" s="8">
-        <v>120</v>
+        <v>5000</v>
       </c>
       <c r="F10" s="8">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G10" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>5770</v>
-      </c>
-      <c r="B11" s="8">
-        <v>4</v>
-      </c>
-      <c r="C11" s="8">
-        <v>5000</v>
-      </c>
-      <c r="D11" s="8">
-        <v>-19</v>
-      </c>
-      <c r="E11" s="8">
-        <v>120</v>
-      </c>
-      <c r="F11" s="8">
-        <v>54</v>
-      </c>
-      <c r="G11" s="8">
         <v>11</v>
       </c>
     </row>
